--- a/medicine/Enfance/Céleste_Pion/Céleste_Pion.xlsx
+++ b/medicine/Enfance/Céleste_Pion/Céleste_Pion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9leste_Pion</t>
+          <t>Céleste_Pion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Céleste Pion (1964-1966) est l’une de ces séries comiques en récits complets que lança le Journal de Tintin dans les années 1960. Sur un scénario de Jacques Acar et des dessins de Hugo, ces 19 histoires de 4 pages chacune racontent les mésaventures d’un artiste à tout faire, Céleste Pion. Aussi à l’aise en sculpture qu’en peinture ou en quoi que ce soit, il en est pourtant réduit à faire du porte à porte pour décrocher des emplois qui bien évidemment seront prétexte à gags. Si Acar collabore au journal jusqu’à sa mort en 1978, la présence d’Hugo Fonske[1] dans les pages de Tintin se cantonne à la période 1961-1966 car il n'arrive pas à développer une série vedette. On peut le regretter car ce dessinateur n’était pas sans talent.
+Céleste Pion (1964-1966) est l’une de ces séries comiques en récits complets que lança le Journal de Tintin dans les années 1960. Sur un scénario de Jacques Acar et des dessins de Hugo, ces 19 histoires de 4 pages chacune racontent les mésaventures d’un artiste à tout faire, Céleste Pion. Aussi à l’aise en sculpture qu’en peinture ou en quoi que ce soit, il en est pourtant réduit à faire du porte à porte pour décrocher des emplois qui bien évidemment seront prétexte à gags. Si Acar collabore au journal jusqu’à sa mort en 1978, la présence d’Hugo Fonske dans les pages de Tintin se cantonne à la période 1961-1966 car il n'arrive pas à développer une série vedette. On peut le regretter car ce dessinateur n’était pas sans talent.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9leste_Pion</t>
+          <t>Céleste_Pion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Tonalité de la bande</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au physique, Céleste Pion est chauve, plutôt petit, a des moustaches identiques à celle des chats et un gros nez, comme de coutume dans les bandes humoristiques franco-belges. Pendant longtemps il portera un canotier qui sera progressivement remplacé par un chapeau melon mais n’abandonnera pas son nœud papillon et sera toujours habillé en costume ou en uniforme, selon les épisodes.
 Comme l’indique le premier épisode, il demeure avenue Hugo Acar, les noms des créateurs de la série.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9leste_Pion</t>
+          <t>Céleste_Pion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,49 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le numéro indiqué correspond à l’édition belge. Les scénarios sont dus à Acar.
 La série est inédite en album.
-1964
-7             Artiste à tout faire
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Céleste_Pion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9leste_Pion</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parutions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7             Artiste à tout faire
 15           Artiste à tout faire
 21           Artiste à tout faire
 25           Baby–Sitter
@@ -559,8 +610,43 @@
 36           L’ascenseur 
 41           Fatale méprise 
 46           La planche à billets 
-1965
-1             Pion et le best–seller 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Céleste_Pion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9leste_Pion</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Parutions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1             Pion et le best–seller 
 4             Pion employé municipal 
 14           Pion gangster 
 18           Pion gardien de musée 
@@ -569,8 +655,43 @@
 30           Pion à la campagne 
 37           Pion peintre 
 42           Pion sculpteur 
-1966
-6             Pion organisateur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Céleste_Pion</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9leste_Pion</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Parutions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6             Pion organisateur
 35           Pion fait de la photo 
 </t>
         </is>
